--- a/非受控文档/需求规格说明阶段/优先级QFD打分表/用户优先级打分表_yc.xlsx
+++ b/非受控文档/需求规格说明阶段/优先级QFD打分表/用户优先级打分表_yc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4150A6-6D30-42E1-A11D-AB1BAAA9713A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1313D35D-53D9-4234-93E2-EAE5C80FA1FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,11 +764,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -786,10 +789,12 @@
         <v>1</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2">
+        <v>0.5</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="1">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -857,8 +862,8 @@
         <v>1.7301038062283738E-2</v>
       </c>
       <c r="J3" s="7">
-        <f>E3/(G3+I3)*0.6</f>
-        <v>0.29867125984251969</v>
+        <f>E3/(G3+I3)*1.5</f>
+        <v>0.74667814960629919</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -894,8 +899,8 @@
         <v>2.0761245674740483E-2</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J61" si="4">E4/(G4+I4)*0.6</f>
-        <v>0.24889271653543305</v>
+        <f t="shared" ref="J4:J61" si="4">E4/(G4+I4)*1.5</f>
+        <v>0.62223179133858264</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -932,7 +937,7 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" si="4"/>
-        <v>0.22286711583732444</v>
+        <v>0.55716778959331115</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -969,7 +974,7 @@
       </c>
       <c r="J6" s="7">
         <f t="shared" si="4"/>
-        <v>0.22286711583732444</v>
+        <v>0.55716778959331115</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1006,7 +1011,7 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" si="4"/>
-        <v>0.30235119211497158</v>
+        <v>0.75587798028742903</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1043,7 +1048,7 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" si="4"/>
-        <v>0.22286711583732444</v>
+        <v>0.55716778959331115</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1080,7 +1085,7 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="4"/>
-        <v>0.30235119211497158</v>
+        <v>0.75587798028742903</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1117,7 +1122,7 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="4"/>
-        <v>0.16051883556049268</v>
+        <v>0.40129708890123172</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1154,7 +1159,7 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="4"/>
-        <v>0.36600407466549201</v>
+        <v>0.91501018666373002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1191,7 +1196,7 @@
       </c>
       <c r="J12" s="7">
         <f t="shared" si="4"/>
-        <v>0.27052475083971145</v>
+        <v>0.67631187709927865</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1228,7 +1233,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="4"/>
-        <v>0.27052475083971145</v>
+        <v>0.67631187709927865</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1265,7 +1270,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="4"/>
-        <v>0.27052475083971145</v>
+        <v>0.67631187709927865</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1302,7 +1307,7 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="4"/>
-        <v>0.29867125984251969</v>
+        <v>0.74667814960629919</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1339,7 +1344,7 @@
       </c>
       <c r="J16" s="7">
         <f t="shared" si="4"/>
-        <v>0.36600407466549201</v>
+        <v>0.91501018666373002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1376,7 +1381,7 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="4"/>
-        <v>0.30235119211497158</v>
+        <v>0.75587798028742903</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1413,7 +1418,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="4"/>
-        <v>0.30235119211497158</v>
+        <v>0.75587798028742903</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1450,7 +1455,7 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="4"/>
-        <v>0.30245190870128574</v>
+        <v>0.75612977175321439</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1487,7 +1492,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="4"/>
-        <v>0.33417763339023182</v>
+        <v>0.83544408347557952</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1524,7 +1529,7 @@
       </c>
       <c r="J21" s="7">
         <f t="shared" si="4"/>
-        <v>0.32711614173228348</v>
+        <v>0.81779035433070879</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1561,7 +1566,7 @@
       </c>
       <c r="J22" s="7">
         <f t="shared" si="4"/>
-        <v>0.39783051594075214</v>
+        <v>0.9945762898518804</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1598,7 +1603,7 @@
       </c>
       <c r="J23" s="7">
         <f t="shared" si="4"/>
-        <v>0.28444881889763779</v>
+        <v>0.71112204724409445</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1635,7 +1640,7 @@
       </c>
       <c r="J24" s="7">
         <f t="shared" si="4"/>
-        <v>0.27052475083971145</v>
+        <v>0.67631187709927865</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1671,8 +1676,8 @@
         <v>1.7301038062283738E-2</v>
       </c>
       <c r="J25" s="7">
-        <f>E25/(G25+I25)*0.6</f>
-        <v>0.23869830956445126</v>
+        <f t="shared" si="4"/>
+        <v>0.59674577391112815</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1709,7 +1714,7 @@
       </c>
       <c r="J26" s="7">
         <f t="shared" si="4"/>
-        <v>0.25461153020208138</v>
+        <v>0.63652882550520351</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1746,7 +1751,7 @@
       </c>
       <c r="J27" s="7">
         <f t="shared" si="4"/>
-        <v>0.2275590551181102</v>
+        <v>0.56889763779527558</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1783,7 +1788,7 @@
       </c>
       <c r="J28" s="7">
         <f t="shared" si="4"/>
-        <v>0.45150606174228214</v>
+        <v>1.1287651543557053</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1820,7 +1825,7 @@
       </c>
       <c r="J29" s="7">
         <f t="shared" si="4"/>
-        <v>0.28896387951506058</v>
+        <v>0.7224096987876516</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1857,7 +1862,7 @@
       </c>
       <c r="J30" s="7">
         <f t="shared" si="4"/>
-        <v>1.2412312097351466</v>
+        <v>3.1030780243378668</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1894,7 +1899,7 @@
       </c>
       <c r="J31" s="7">
         <f t="shared" si="4"/>
-        <v>0.25600393700787399</v>
+        <v>0.64000984251968496</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1931,7 +1936,7 @@
       </c>
       <c r="J32" s="7">
         <f t="shared" si="4"/>
-        <v>0.25600393700787399</v>
+        <v>0.64000984251968496</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1968,7 +1973,7 @@
       </c>
       <c r="J33" s="7">
         <f t="shared" si="4"/>
-        <v>0.28643797147734151</v>
+        <v>0.71609492869335389</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2005,7 +2010,7 @@
       </c>
       <c r="J34" s="7">
         <f t="shared" si="4"/>
-        <v>0.49778543307086609</v>
+        <v>1.2444635826771653</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2042,7 +2047,7 @@
       </c>
       <c r="J35" s="7">
         <f t="shared" si="4"/>
-        <v>0.22278508892682117</v>
+        <v>0.55696272231705302</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2079,7 +2084,7 @@
       </c>
       <c r="J36" s="7">
         <f t="shared" si="4"/>
-        <v>0.25461153020208138</v>
+        <v>0.63652882550520351</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2116,7 +2121,7 @@
       </c>
       <c r="J37" s="7">
         <f t="shared" si="4"/>
-        <v>0.35009085402786183</v>
+        <v>0.87522713506965455</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2153,7 +2158,7 @@
       </c>
       <c r="J38" s="7">
         <f t="shared" si="4"/>
-        <v>0.32141109479959068</v>
+        <v>0.80352773699897673</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2190,7 +2195,7 @@
       </c>
       <c r="J39" s="7">
         <f t="shared" si="4"/>
-        <v>0.2068718682891911</v>
+        <v>0.51717967072297777</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2227,7 +2232,7 @@
       </c>
       <c r="J40" s="7">
         <f t="shared" si="4"/>
-        <v>0.6755659448818897</v>
+        <v>1.6889148622047245</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2264,7 +2269,7 @@
       </c>
       <c r="J41" s="7">
         <f t="shared" si="4"/>
-        <v>0.35009085402786183</v>
+        <v>0.87522713506965455</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2301,7 +2306,7 @@
       </c>
       <c r="J42" s="7">
         <f t="shared" si="4"/>
-        <v>0.33417763339023182</v>
+        <v>0.83544408347557952</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2338,7 +2343,7 @@
       </c>
       <c r="J43" s="7">
         <f t="shared" si="4"/>
-        <v>0.43051713130453284</v>
+        <v>1.076292828261332</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2375,7 +2380,7 @@
       </c>
       <c r="J44" s="7">
         <f t="shared" si="4"/>
-        <v>0.43051713130453284</v>
+        <v>1.076292828261332</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2412,7 +2417,7 @@
       </c>
       <c r="J45" s="7">
         <f t="shared" si="4"/>
-        <v>0.33778297244094485</v>
+        <v>0.84445743110236227</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2449,7 +2454,7 @@
       </c>
       <c r="J46" s="7">
         <f t="shared" si="4"/>
-        <v>0.60445374015748021</v>
+        <v>1.5111343503937005</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2486,7 +2491,7 @@
       </c>
       <c r="J47" s="7">
         <f t="shared" si="4"/>
-        <v>0.36600407466549201</v>
+        <v>0.91501018666373002</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2523,7 +2528,7 @@
       </c>
       <c r="J48" s="7">
         <f t="shared" si="4"/>
-        <v>0.27052475083971145</v>
+        <v>0.67631187709927865</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2560,7 +2565,7 @@
       </c>
       <c r="J49" s="7">
         <f t="shared" si="4"/>
-        <v>0.24484202132961225</v>
+        <v>0.61210505332403065</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2597,7 +2602,7 @@
       </c>
       <c r="J50" s="7">
         <f t="shared" si="4"/>
-        <v>0.24484202132961225</v>
+        <v>0.61210505332403065</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2634,7 +2639,7 @@
       </c>
       <c r="J51" s="7">
         <f t="shared" si="4"/>
-        <v>0.27052475083971145</v>
+        <v>0.67631187709927865</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2671,7 +2676,7 @@
       </c>
       <c r="J52" s="7">
         <f t="shared" si="4"/>
-        <v>0.33417763339023182</v>
+        <v>0.83544408347557952</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2708,7 +2713,7 @@
       </c>
       <c r="J53" s="7">
         <f t="shared" si="4"/>
-        <v>0.273646965015449</v>
+        <v>0.68411741253862246</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2745,7 +2750,7 @@
       </c>
       <c r="J54" s="7">
         <f t="shared" si="4"/>
-        <v>0.21855954446372167</v>
+        <v>0.54639886115930425</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2782,7 +2787,7 @@
       </c>
       <c r="J55" s="7">
         <f t="shared" si="4"/>
-        <v>0.21855954446372167</v>
+        <v>0.54639886115930425</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2819,7 +2824,7 @@
       </c>
       <c r="J56" s="7">
         <f t="shared" si="4"/>
-        <v>0.27052475083971145</v>
+        <v>0.67631187709927865</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2856,7 +2861,7 @@
       </c>
       <c r="J57" s="7">
         <f t="shared" si="4"/>
-        <v>0.27052475083971145</v>
+        <v>0.67631187709927865</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2893,7 +2898,7 @@
       </c>
       <c r="J58" s="7">
         <f t="shared" si="4"/>
-        <v>0.23869830956445126</v>
+        <v>0.59674577391112815</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2930,7 +2935,7 @@
       </c>
       <c r="J59" s="7">
         <f t="shared" si="4"/>
-        <v>0.19284665687975444</v>
+        <v>0.4821166421993861</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2967,7 +2972,7 @@
       </c>
       <c r="J60" s="7">
         <f t="shared" si="4"/>
-        <v>0.27052475083971145</v>
+        <v>0.67631187709927865</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -3004,7 +3009,7 @@
       </c>
       <c r="J61" s="7">
         <f t="shared" si="4"/>
-        <v>0.34851386819890756</v>
+        <v>0.87128467049726899</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
